--- a/data/trans_camb/P42C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R2-Provincia-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.05423331114168</v>
+        <v>-7.346108487393497</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.253801572847833</v>
+        <v>-3.397086599243177</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.897173077756275</v>
+        <v>8.504638218432071</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.44474440774553</v>
+        <v>11.96634762965944</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.09717930551036368</v>
+        <v>-0.09217820372676333</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03983462865572557</v>
+        <v>-0.04057595222512754</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1212077812400686</v>
+        <v>0.1144172562521834</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.161773733985359</v>
+        <v>0.1678290050714153</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.092084598324938</v>
+        <v>1.683362653802252</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.32537855141335</v>
+        <v>-10.93039542231731</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.91778851294395</v>
+        <v>13.03773049702561</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.074108156614733</v>
+        <v>1.184168216186412</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03784693504480012</v>
+        <v>0.02283553708567647</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.132038572055549</v>
+        <v>-0.1380536473363404</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1884069169155747</v>
+        <v>0.1772923938944388</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02733836923268015</v>
+        <v>0.0153023339525334</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.01761401159976</v>
+        <v>10.21965596749021</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.706781266759371</v>
+        <v>-2.106788539649783</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.96292751151935</v>
+        <v>22.14369811267967</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.48387814005311</v>
+        <v>11.80691438786665</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1223969241636325</v>
+        <v>0.1215507669575966</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.02070794150832731</v>
+        <v>-0.02508800793940706</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3016573273444381</v>
+        <v>0.2976928611526778</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1543173325129541</v>
+        <v>0.1621001813233616</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>16.76069945305391</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.803884504855739</v>
+        <v>6.80388450485575</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.754065678480154</v>
+        <v>9.490133667993113</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5270151991065133</v>
+        <v>-0.2123067725488521</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.76487131719716</v>
+        <v>23.76186580243131</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.05341882449827</v>
+        <v>14.77293178862843</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.2397482399613564</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.09732406093841686</v>
+        <v>0.09732406093841701</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1319713369612955</v>
+        <v>0.129163525639423</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.00639120915538539</v>
+        <v>-0.002875453720186557</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3633597180751493</v>
+        <v>0.3689411555421323</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2182390420205758</v>
+        <v>0.2281081159228923</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>18.14615770835681</v>
+        <v>18.52126045753386</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.405936301037138</v>
+        <v>1.764178448175247</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>33.86459086744838</v>
+        <v>33.43388068235073</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>18.78203607218907</v>
+        <v>18.36587760797772</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.235208515231869</v>
+        <v>0.2428390574791233</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.01850438793171821</v>
+        <v>0.02297766352327009</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5310542905534674</v>
+        <v>0.5334395911097686</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2911034370688235</v>
+        <v>0.289895820077376</v>
       </c>
     </row>
     <row r="34">
@@ -1012,7 +1012,7 @@
         <v>2.926416523545261</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>4.400702083313657</v>
+        <v>4.400702083313668</v>
       </c>
     </row>
     <row r="35">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.078565321583938</v>
+        <v>-5.121321090646337</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.798972015122796</v>
+        <v>-3.34491142978308</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.67827014360758</v>
+        <v>11.60601091323658</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.26113064366511</v>
+        <v>11.96049632825657</v>
       </c>
     </row>
     <row r="37">
@@ -1054,7 +1054,7 @@
         <v>0.0370098147904665</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.05565481459698282</v>
+        <v>0.05565481459698297</v>
       </c>
     </row>
     <row r="38">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.06204836716180533</v>
+        <v>-0.06101778249466246</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.04386277841804911</v>
+        <v>-0.0401329530493876</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1421155116233727</v>
+        <v>0.1554019985610182</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1534213978580644</v>
+        <v>0.1615721641756043</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>0.7774046124829903</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-19.22565280287951</v>
+        <v>-19.2256528028795</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.743818851085533</v>
+        <v>-4.752098378594695</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-25.51194009569553</v>
+        <v>-25.06785373282391</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.161252670464715</v>
+        <v>6.24306550601899</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-13.64389309372736</v>
+        <v>-13.37847000679419</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>0.01026912210925187</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.2539611588259904</v>
+        <v>-0.2539611588259902</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.06042206447499455</v>
+        <v>-0.06112177667254156</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3279086359327557</v>
+        <v>-0.3183000581054191</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.08540737427540551</v>
+        <v>0.08454245092146062</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1826657276322046</v>
+        <v>-0.1831829388407117</v>
       </c>
     </row>
     <row r="46">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>3.917113404699302</v>
+        <v>3.945593328042723</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>6.35405349094312</v>
+        <v>6.625771651562771</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>12.68547077248188</v>
+        <v>12.61974183707427</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>15.26757079111068</v>
+        <v>15.52187864991224</v>
       </c>
     </row>
     <row r="49">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.04951468981179774</v>
+        <v>0.05027688775046405</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.07969827699014431</v>
+        <v>0.08437354134634309</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1714857327949467</v>
+        <v>0.1708744279583141</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2056746568934563</v>
+        <v>0.2094990720398751</v>
       </c>
     </row>
     <row r="52">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>6.231247164710942</v>
+        <v>6.399391663767131</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.656709098766053</v>
+        <v>-2.543356158869987</v>
       </c>
     </row>
     <row r="54">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>10.61823414970162</v>
+        <v>10.79536720603247</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.846658763170562</v>
+        <v>2.069763759739539</v>
       </c>
     </row>
     <row r="55">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.07932290858184228</v>
+        <v>0.08236764385884023</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.03403789834136281</v>
+        <v>-0.03296880670347015</v>
       </c>
     </row>
     <row r="57">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1419971458612461</v>
+        <v>0.1443400332646251</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.02468668811122823</v>
+        <v>0.02748722796674787</v>
       </c>
     </row>
     <row r="58">
